--- a/data/pca/factorExposure/factorExposure_2017-03-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01680660797753225</v>
+        <v>0.01114401437734761</v>
       </c>
       <c r="C2">
-        <v>0.01794245979297854</v>
+        <v>-0.04204609513802529</v>
       </c>
       <c r="D2">
-        <v>-0.03398560328075988</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03023614250480435</v>
+      </c>
+      <c r="E2">
+        <v>-0.04210149476510375</v>
+      </c>
+      <c r="F2">
+        <v>-0.00372106825327241</v>
+      </c>
+      <c r="G2">
+        <v>-0.1054807292605715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0188124891115752</v>
+        <v>0.03969566898598166</v>
       </c>
       <c r="C3">
-        <v>0.0005486121755724446</v>
+        <v>-0.1004344666813796</v>
       </c>
       <c r="D3">
-        <v>-0.09708420156916424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01782173182845476</v>
+      </c>
+      <c r="E3">
+        <v>-0.101523821641606</v>
+      </c>
+      <c r="F3">
+        <v>-0.01131243511533168</v>
+      </c>
+      <c r="G3">
+        <v>-0.1492721123120987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02383095665038988</v>
+        <v>0.05533375020931119</v>
       </c>
       <c r="C4">
-        <v>0.01257552872908572</v>
+        <v>-0.06787278071301243</v>
       </c>
       <c r="D4">
-        <v>-0.08318947850453824</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02494475674954602</v>
+      </c>
+      <c r="E4">
+        <v>-0.03802688785582438</v>
+      </c>
+      <c r="F4">
+        <v>0.004752826057107358</v>
+      </c>
+      <c r="G4">
+        <v>-0.09957477319935779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.007824245709729075</v>
+        <v>0.03588547717678332</v>
       </c>
       <c r="C6">
-        <v>0.01314629886493707</v>
+        <v>-0.05076044582490968</v>
       </c>
       <c r="D6">
-        <v>-0.07053483638991626</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01729711445511886</v>
+      </c>
+      <c r="E6">
+        <v>-0.04216421786635841</v>
+      </c>
+      <c r="F6">
+        <v>0.002735518266372451</v>
+      </c>
+      <c r="G6">
+        <v>-0.08626723917994994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.002561453125065118</v>
+        <v>0.02043630863945226</v>
       </c>
       <c r="C7">
-        <v>0.01520047669058519</v>
+        <v>-0.03957242199138411</v>
       </c>
       <c r="D7">
-        <v>-0.03619640458088398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01403884639574745</v>
+      </c>
+      <c r="E7">
+        <v>-0.007718411479690495</v>
+      </c>
+      <c r="F7">
+        <v>-0.005385399259850332</v>
+      </c>
+      <c r="G7">
+        <v>-0.1236386189572511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003193352917626619</v>
+        <v>0.003107417332724564</v>
       </c>
       <c r="C8">
-        <v>0.002516643243238132</v>
+        <v>-0.02437909227390638</v>
       </c>
       <c r="D8">
-        <v>0.009868623383447794</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004019086455724611</v>
+      </c>
+      <c r="E8">
+        <v>-0.03135465342942895</v>
+      </c>
+      <c r="F8">
+        <v>0.001857454559129268</v>
+      </c>
+      <c r="G8">
+        <v>-0.07089247029225655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.009632016104139017</v>
+        <v>0.03276726630832973</v>
       </c>
       <c r="C9">
-        <v>0.01114674890315224</v>
+        <v>-0.04996436566106962</v>
       </c>
       <c r="D9">
-        <v>-0.05740743285715878</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01660186903510318</v>
+      </c>
+      <c r="E9">
+        <v>-0.02595648276938239</v>
+      </c>
+      <c r="F9">
+        <v>0.003859265377293556</v>
+      </c>
+      <c r="G9">
+        <v>-0.1021623548241533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1537822873885439</v>
+        <v>0.0981296502849956</v>
       </c>
       <c r="C10">
-        <v>-0.1027252183394952</v>
+        <v>0.1822836133342878</v>
       </c>
       <c r="D10">
-        <v>0.1031410591754442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01555090174249453</v>
+      </c>
+      <c r="E10">
+        <v>-0.01899327468435285</v>
+      </c>
+      <c r="F10">
+        <v>-0.02239395873846416</v>
+      </c>
+      <c r="G10">
+        <v>-0.05386761085446026</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.001726604762020238</v>
+        <v>0.03507351570709362</v>
       </c>
       <c r="C11">
-        <v>0.0004190416086909227</v>
+        <v>-0.05197425920586531</v>
       </c>
       <c r="D11">
-        <v>-0.05060174989573132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002579739906852371</v>
+      </c>
+      <c r="E11">
+        <v>-0.0211431298798989</v>
+      </c>
+      <c r="F11">
+        <v>0.01557339094403819</v>
+      </c>
+      <c r="G11">
+        <v>-0.09080067115977078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006104731025653058</v>
+        <v>0.03714162822423255</v>
       </c>
       <c r="C12">
-        <v>0.003363195367475231</v>
+        <v>-0.04672808256098664</v>
       </c>
       <c r="D12">
-        <v>-0.04519797312671516</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006609234677609904</v>
+      </c>
+      <c r="E12">
+        <v>-0.01073291255026365</v>
+      </c>
+      <c r="F12">
+        <v>-0.0008888305442855576</v>
+      </c>
+      <c r="G12">
+        <v>-0.08264199902883022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01437223634469636</v>
+        <v>0.01470498238120992</v>
       </c>
       <c r="C13">
-        <v>0.01649977092588418</v>
+        <v>-0.04197635121877776</v>
       </c>
       <c r="D13">
-        <v>-0.03587758520579589</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02692795632938207</v>
+      </c>
+      <c r="E13">
+        <v>-0.04105083935577907</v>
+      </c>
+      <c r="F13">
+        <v>-0.005265440276557025</v>
+      </c>
+      <c r="G13">
+        <v>-0.1425579775715363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.00171249561166753</v>
+        <v>0.008852896276119033</v>
       </c>
       <c r="C14">
-        <v>0.007211965380088137</v>
+        <v>-0.02841761828816085</v>
       </c>
       <c r="D14">
-        <v>-0.01955839699724681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01026746148714801</v>
+      </c>
+      <c r="E14">
+        <v>-0.008027837348690902</v>
+      </c>
+      <c r="F14">
+        <v>-0.01040982200483655</v>
+      </c>
+      <c r="G14">
+        <v>-0.1108171906029863</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.005438638637348821</v>
+        <v>0.03367092962182069</v>
       </c>
       <c r="C16">
-        <v>-0.002138917558472917</v>
+        <v>-0.04513530341239377</v>
       </c>
       <c r="D16">
-        <v>-0.04017467507464825</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002004652325566054</v>
+      </c>
+      <c r="E16">
+        <v>-0.01588080935069561</v>
+      </c>
+      <c r="F16">
+        <v>-0.002698236240677608</v>
+      </c>
+      <c r="G16">
+        <v>-0.09264913924914593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.00739250561850619</v>
+        <v>0.02085447081367428</v>
       </c>
       <c r="C19">
-        <v>0.01106953401154181</v>
+        <v>-0.05141142174104416</v>
       </c>
       <c r="D19">
-        <v>-0.04188291814170418</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02010106624761794</v>
+      </c>
+      <c r="E19">
+        <v>-0.08732968166398056</v>
+      </c>
+      <c r="F19">
+        <v>0.005296244056177335</v>
+      </c>
+      <c r="G19">
+        <v>-0.1422113874334769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.0009108289040992574</v>
+        <v>0.01536138258156381</v>
       </c>
       <c r="C20">
-        <v>0.01240656297853112</v>
+        <v>-0.04219212344917378</v>
       </c>
       <c r="D20">
-        <v>-0.03522584226968068</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0145677215541438</v>
+      </c>
+      <c r="E20">
+        <v>-0.03881000511271688</v>
+      </c>
+      <c r="F20">
+        <v>-0.01913775982667192</v>
+      </c>
+      <c r="G20">
+        <v>-0.1127060572136702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.004626781185613648</v>
+        <v>0.01117677575318048</v>
       </c>
       <c r="C21">
-        <v>0.01248451281204257</v>
+        <v>-0.03946791991745657</v>
       </c>
       <c r="D21">
-        <v>-0.01523492502704942</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0196316618960478</v>
+      </c>
+      <c r="E21">
+        <v>-0.04856659707775669</v>
+      </c>
+      <c r="F21">
+        <v>-0.008736431674702205</v>
+      </c>
+      <c r="G21">
+        <v>-0.1442552110264417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001020901881573015</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006549593355414439</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.001954649496539083</v>
+      </c>
+      <c r="E22">
+        <v>-0.01538990055297726</v>
+      </c>
+      <c r="F22">
+        <v>0.009376930138782288</v>
+      </c>
+      <c r="G22">
+        <v>-0.0009062420156854089</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001029653754819458</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006556182476072865</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.001952401561291141</v>
+      </c>
+      <c r="E23">
+        <v>-0.01536362344781231</v>
+      </c>
+      <c r="F23">
+        <v>0.009367257864073202</v>
+      </c>
+      <c r="G23">
+        <v>-0.0007952192419634049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0001508996729612333</v>
+        <v>0.02931309500662754</v>
       </c>
       <c r="C24">
-        <v>0.006445273735447197</v>
+        <v>-0.04823792374568953</v>
       </c>
       <c r="D24">
-        <v>-0.04099618970119213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007266222757098954</v>
+      </c>
+      <c r="E24">
+        <v>-0.01623248540500893</v>
+      </c>
+      <c r="F24">
+        <v>0.007149842980313365</v>
+      </c>
+      <c r="G24">
+        <v>-0.09305333625853737</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0148651645852358</v>
+        <v>0.04251073771993114</v>
       </c>
       <c r="C25">
-        <v>0.003604299974125528</v>
+        <v>-0.05622782413546201</v>
       </c>
       <c r="D25">
-        <v>-0.05739034686057752</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01131797278803047</v>
+      </c>
+      <c r="E25">
+        <v>-0.006918428271968302</v>
+      </c>
+      <c r="F25">
+        <v>0.00346822202964789</v>
+      </c>
+      <c r="G25">
+        <v>-0.09827535226580328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01022563436585804</v>
+        <v>0.01432664026672864</v>
       </c>
       <c r="C26">
-        <v>0.01934310090173548</v>
+        <v>-0.01166003073860347</v>
       </c>
       <c r="D26">
-        <v>-0.0007352492346231595</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0242016161033363</v>
+      </c>
+      <c r="E26">
+        <v>-0.009875366370775027</v>
+      </c>
+      <c r="F26">
+        <v>-0.008377799941865516</v>
+      </c>
+      <c r="G26">
+        <v>-0.08569587162363804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.2011360203614377</v>
+        <v>0.1266026727679575</v>
       </c>
       <c r="C28">
-        <v>-0.1170425328341248</v>
+        <v>0.2414676395008836</v>
       </c>
       <c r="D28">
-        <v>0.129981182550047</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006845652152591856</v>
+      </c>
+      <c r="E28">
+        <v>-0.007047021423172485</v>
+      </c>
+      <c r="F28">
+        <v>-0.01947224313548442</v>
+      </c>
+      <c r="G28">
+        <v>-0.04732728214209356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.005696006605675406</v>
+        <v>0.009220407295423378</v>
       </c>
       <c r="C29">
-        <v>0.004381947585305979</v>
+        <v>-0.02343737489848004</v>
       </c>
       <c r="D29">
-        <v>-0.01835036349756214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009325845204717503</v>
+      </c>
+      <c r="E29">
+        <v>-0.00383845953025207</v>
+      </c>
+      <c r="F29">
+        <v>-0.01626542633326994</v>
+      </c>
+      <c r="G29">
+        <v>-0.102830094754394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.007257984593398535</v>
+        <v>0.04044222689922489</v>
       </c>
       <c r="C30">
-        <v>0.02465722999149886</v>
+        <v>-0.06869915577408757</v>
       </c>
       <c r="D30">
-        <v>-0.09534883827158486</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02957385279506381</v>
+      </c>
+      <c r="E30">
+        <v>-0.06908922912560518</v>
+      </c>
+      <c r="F30">
+        <v>0.03226220429885138</v>
+      </c>
+      <c r="G30">
+        <v>-0.138420957729964</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02056450181188532</v>
+        <v>0.05324564866773964</v>
       </c>
       <c r="C31">
-        <v>-0.006753528130824143</v>
+        <v>-0.03950662422113538</v>
       </c>
       <c r="D31">
-        <v>-0.03194468506694689</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003778206149783249</v>
+      </c>
+      <c r="E31">
+        <v>0.00311374260161439</v>
+      </c>
+      <c r="F31">
+        <v>-0.0383003805535873</v>
+      </c>
+      <c r="G31">
+        <v>-0.09589924953538402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.004312810928311091</v>
+        <v>0.002619581808066208</v>
       </c>
       <c r="C32">
-        <v>-0.006861345332137435</v>
+        <v>-0.02127532934597788</v>
       </c>
       <c r="D32">
-        <v>0.002525159741767082</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.002601322441555583</v>
+      </c>
+      <c r="E32">
+        <v>-0.04189330864745126</v>
+      </c>
+      <c r="F32">
+        <v>0.03202341603934716</v>
+      </c>
+      <c r="G32">
+        <v>-0.09057891471498543</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.007591350843308209</v>
+        <v>0.02794862836371001</v>
       </c>
       <c r="C33">
-        <v>0.008869620667133767</v>
+        <v>-0.05122280954794515</v>
       </c>
       <c r="D33">
-        <v>-0.04360110808232285</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01653380562025054</v>
+      </c>
+      <c r="E33">
+        <v>-0.05027350643577956</v>
+      </c>
+      <c r="F33">
+        <v>0.009161101623165387</v>
+      </c>
+      <c r="G33">
+        <v>-0.1643067210668954</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.01190582304364709</v>
+        <v>0.04060797341966288</v>
       </c>
       <c r="C34">
-        <v>-0.0133262324426272</v>
+        <v>-0.05805179514429498</v>
       </c>
       <c r="D34">
-        <v>-0.0586642488346271</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004320855569812039</v>
+      </c>
+      <c r="E34">
+        <v>-0.01255976976387523</v>
+      </c>
+      <c r="F34">
+        <v>0.01885806933556437</v>
+      </c>
+      <c r="G34">
+        <v>-0.09453258699696365</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01186633794040734</v>
+        <v>0.0155321073649572</v>
       </c>
       <c r="C36">
-        <v>0.005060079262281826</v>
+        <v>-0.01075251509767377</v>
       </c>
       <c r="D36">
-        <v>-0.003211120717678245</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01297650422352538</v>
+      </c>
+      <c r="E36">
+        <v>-0.01088351033940591</v>
+      </c>
+      <c r="F36">
+        <v>-0.008826370124370667</v>
+      </c>
+      <c r="G36">
+        <v>-0.09423657297869142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.01661961789058879</v>
+        <v>0.03164606939363955</v>
       </c>
       <c r="C38">
-        <v>-0.01875667052702908</v>
+        <v>-0.03035413160985961</v>
       </c>
       <c r="D38">
-        <v>-0.03976809937862864</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007519279280601661</v>
+      </c>
+      <c r="E38">
+        <v>-0.006304804948335815</v>
+      </c>
+      <c r="F38">
+        <v>-0.01875247603357621</v>
+      </c>
+      <c r="G38">
+        <v>-0.08482991237302512</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.01356007045207658</v>
+        <v>0.03701949296057793</v>
       </c>
       <c r="C39">
-        <v>0.01945761949232376</v>
+        <v>-0.07870656668515036</v>
       </c>
       <c r="D39">
-        <v>-0.09795006970109947</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01180303649099116</v>
+      </c>
+      <c r="E39">
+        <v>-0.03217079942229274</v>
+      </c>
+      <c r="F39">
+        <v>0.01794115313026323</v>
+      </c>
+      <c r="G39">
+        <v>-0.09181006802793917</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01489941505127767</v>
+        <v>0.01362274133910999</v>
       </c>
       <c r="C40">
-        <v>0.003341156521122722</v>
+        <v>-0.03810494303101879</v>
       </c>
       <c r="D40">
-        <v>-0.03071313758839623</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01488709862569156</v>
+      </c>
+      <c r="E40">
+        <v>-0.03367409686039836</v>
+      </c>
+      <c r="F40">
+        <v>-0.01305691405990875</v>
+      </c>
+      <c r="G40">
+        <v>-0.1232713822353081</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01338513435072589</v>
+        <v>0.01984120575563232</v>
       </c>
       <c r="C41">
-        <v>-0.004613802264149054</v>
+        <v>-0.004050543715330828</v>
       </c>
       <c r="D41">
-        <v>0.009279171910510238</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004824599500333292</v>
+      </c>
+      <c r="E41">
+        <v>-0.008507069872044923</v>
+      </c>
+      <c r="F41">
+        <v>-0.01597196763215168</v>
+      </c>
+      <c r="G41">
+        <v>-0.08766723356721588</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.03181218811133458</v>
+        <v>0.006923451419192762</v>
       </c>
       <c r="C42">
-        <v>0.08855789016091463</v>
+        <v>-0.02725036171524872</v>
       </c>
       <c r="D42">
-        <v>-0.09766769556394349</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08719961409682321</v>
+      </c>
+      <c r="E42">
+        <v>-0.007095644892143549</v>
+      </c>
+      <c r="F42">
+        <v>-0.03981138142080817</v>
+      </c>
+      <c r="G42">
+        <v>0.01972938044565735</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01420644894049915</v>
+        <v>0.03535421401309708</v>
       </c>
       <c r="C43">
-        <v>-0.00423067721043563</v>
+        <v>-0.01951185848940385</v>
       </c>
       <c r="D43">
-        <v>0.007069666272284888</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006134333626852706</v>
+      </c>
+      <c r="E43">
+        <v>-0.02209549375964931</v>
+      </c>
+      <c r="F43">
+        <v>-0.01103846237822134</v>
+      </c>
+      <c r="G43">
+        <v>-0.1203277834116909</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.00259079706705912</v>
+        <v>0.01379184200239811</v>
       </c>
       <c r="C44">
-        <v>0.005296728660128695</v>
+        <v>-0.05843592133333037</v>
       </c>
       <c r="D44">
-        <v>-0.04661342959909467</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.007002558215497372</v>
+      </c>
+      <c r="E44">
+        <v>-0.02611304153432021</v>
+      </c>
+      <c r="F44">
+        <v>-0.0116551069358996</v>
+      </c>
+      <c r="G44">
+        <v>-0.1110762881788581</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.00654123136214219</v>
+        <v>0.009350036092997742</v>
       </c>
       <c r="C46">
-        <v>0.007075364485510958</v>
+        <v>-0.01542738418428075</v>
       </c>
       <c r="D46">
-        <v>0.002166913117217088</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01249323368261655</v>
+      </c>
+      <c r="E46">
+        <v>0.001422555415070946</v>
+      </c>
+      <c r="F46">
+        <v>-0.020298115971583</v>
+      </c>
+      <c r="G46">
+        <v>-0.1100649813975958</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02309426561713314</v>
+        <v>0.07887641629966041</v>
       </c>
       <c r="C47">
-        <v>-0.01551986840594896</v>
+        <v>-0.06984549941737278</v>
       </c>
       <c r="D47">
-        <v>-0.07962389146184601</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005172697313831439</v>
+      </c>
+      <c r="E47">
+        <v>0.01190041564425372</v>
+      </c>
+      <c r="F47">
+        <v>-0.0534368804766832</v>
+      </c>
+      <c r="G47">
+        <v>-0.08182120213480784</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.007128231765910673</v>
+        <v>0.01818886835515196</v>
       </c>
       <c r="C48">
-        <v>-0.002926261893325295</v>
+        <v>-0.01349536977526888</v>
       </c>
       <c r="D48">
-        <v>-0.01567760270038562</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002564955124600005</v>
+      </c>
+      <c r="E48">
+        <v>-0.006727849897516508</v>
+      </c>
+      <c r="F48">
+        <v>-0.02050770080861205</v>
+      </c>
+      <c r="G48">
+        <v>-0.1001974597450759</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03104904542477348</v>
+        <v>0.07463296802340469</v>
       </c>
       <c r="C50">
-        <v>-0.01882573673432818</v>
+        <v>-0.07332400318590121</v>
       </c>
       <c r="D50">
-        <v>-0.06846803730072699</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002107603889597556</v>
+      </c>
+      <c r="E50">
+        <v>0.007895284939646276</v>
+      </c>
+      <c r="F50">
+        <v>-0.05439268749590379</v>
+      </c>
+      <c r="G50">
+        <v>-0.09163289361055189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007879724513013751</v>
+        <v>0.01335845585395625</v>
       </c>
       <c r="C51">
-        <v>0.002305900525903458</v>
+        <v>-0.03744863742704237</v>
       </c>
       <c r="D51">
-        <v>-0.02612849434659965</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01083408612079021</v>
+      </c>
+      <c r="E51">
+        <v>-0.02917666952336257</v>
+      </c>
+      <c r="F51">
+        <v>0.01423553719567647</v>
+      </c>
+      <c r="G51">
+        <v>-0.1251053166029949</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.0372932754992314</v>
+        <v>0.08167138817439974</v>
       </c>
       <c r="C53">
-        <v>-0.02168531005105805</v>
+        <v>-0.08426608865332896</v>
       </c>
       <c r="D53">
-        <v>-0.1188728044018361</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003425254407074916</v>
+      </c>
+      <c r="E53">
+        <v>0.02939085724478717</v>
+      </c>
+      <c r="F53">
+        <v>-0.05939870928409575</v>
+      </c>
+      <c r="G53">
+        <v>-0.08956580969024167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01486032315477311</v>
+        <v>0.03175629137459035</v>
       </c>
       <c r="C54">
-        <v>-0.0125247595478477</v>
+        <v>-0.0193266067935611</v>
       </c>
       <c r="D54">
-        <v>-0.003078990204278943</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0009254131787941667</v>
+      </c>
+      <c r="E54">
+        <v>-0.01978852288217007</v>
+      </c>
+      <c r="F54">
+        <v>-0.009920626840581094</v>
+      </c>
+      <c r="G54">
+        <v>-0.1111089720821076</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.02061277428173508</v>
+        <v>0.07358968398439752</v>
       </c>
       <c r="C55">
-        <v>-0.01305919188364413</v>
+        <v>-0.06779524024923198</v>
       </c>
       <c r="D55">
-        <v>-0.0980824772538522</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.00519743104805478</v>
+      </c>
+      <c r="E55">
+        <v>0.02806501035435344</v>
+      </c>
+      <c r="F55">
+        <v>-0.05935897808829249</v>
+      </c>
+      <c r="G55">
+        <v>-0.06491677898126011</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.04382843739026036</v>
+        <v>0.1360140969901061</v>
       </c>
       <c r="C56">
-        <v>-0.03044365961736608</v>
+        <v>-0.1078500353339704</v>
       </c>
       <c r="D56">
-        <v>-0.1575067582041352</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01301966305742282</v>
+      </c>
+      <c r="E56">
+        <v>0.03999090428924121</v>
+      </c>
+      <c r="F56">
+        <v>-0.07329272450099009</v>
+      </c>
+      <c r="G56">
+        <v>-0.03595380202404582</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01696067138436151</v>
+        <v>0.005256540460764992</v>
       </c>
       <c r="C57">
-        <v>0.01586774988379004</v>
+        <v>-0.006172798886306599</v>
       </c>
       <c r="D57">
-        <v>-0.02955092263004043</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02267226319463003</v>
+      </c>
+      <c r="E57">
+        <v>-0.02428404579496406</v>
+      </c>
+      <c r="F57">
+        <v>0.003544620877644099</v>
+      </c>
+      <c r="G57">
+        <v>-0.02223404634395833</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.0129321356154091</v>
+        <v>0.04622286436646675</v>
       </c>
       <c r="C58">
-        <v>0.01267359313292958</v>
+        <v>-0.0477490910691047</v>
       </c>
       <c r="D58">
-        <v>-0.2009875717815906</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02406303619966968</v>
+      </c>
+      <c r="E58">
+        <v>-0.8622832562876064</v>
+      </c>
+      <c r="F58">
+        <v>-0.3916241917777009</v>
+      </c>
+      <c r="G58">
+        <v>0.2488788200928598</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2236923146874515</v>
+        <v>0.1588338470270864</v>
       </c>
       <c r="C59">
-        <v>-0.1362039664803956</v>
+        <v>0.208025877569942</v>
       </c>
       <c r="D59">
-        <v>0.1044680183016707</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01141207350240922</v>
+      </c>
+      <c r="E59">
+        <v>-0.02511613091853926</v>
+      </c>
+      <c r="F59">
+        <v>-0.004966957942400061</v>
+      </c>
+      <c r="G59">
+        <v>-0.04134809321319342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1967865861549346</v>
+        <v>0.2895925377248414</v>
       </c>
       <c r="C60">
-        <v>-0.09589405011921052</v>
+        <v>-0.1115754876242793</v>
       </c>
       <c r="D60">
-        <v>-0.1999782842181975</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.012981903900824</v>
+      </c>
+      <c r="E60">
+        <v>-0.05472626190543007</v>
+      </c>
+      <c r="F60">
+        <v>0.3436314099506471</v>
+      </c>
+      <c r="G60">
+        <v>0.1649666057295857</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.00193008638278842</v>
+        <v>0.03874197555691516</v>
       </c>
       <c r="C61">
-        <v>0.005951394677741137</v>
+        <v>-0.06516210622560782</v>
       </c>
       <c r="D61">
-        <v>-0.07815277020693188</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.006004882307839217</v>
+      </c>
+      <c r="E61">
+        <v>-0.02902017104475149</v>
+      </c>
+      <c r="F61">
+        <v>0.01225115257905537</v>
+      </c>
+      <c r="G61">
+        <v>-0.09927173369089258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.003340565737842952</v>
+        <v>0.01473080582496199</v>
       </c>
       <c r="C63">
-        <v>0.006717827967328236</v>
+        <v>-0.03063953744981029</v>
       </c>
       <c r="D63">
-        <v>-0.02133230594801826</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.00884876475380793</v>
+      </c>
+      <c r="E63">
+        <v>-0.006268537858079631</v>
+      </c>
+      <c r="F63">
+        <v>-0.01458330498922199</v>
+      </c>
+      <c r="G63">
+        <v>-0.09539750332498927</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.0239873775102839</v>
+        <v>0.04947046295748703</v>
       </c>
       <c r="C64">
-        <v>-0.008213345533409111</v>
+        <v>-0.04621870341174915</v>
       </c>
       <c r="D64">
-        <v>-0.05422791048444807</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006099069568073733</v>
+      </c>
+      <c r="E64">
+        <v>-0.005609495603255769</v>
+      </c>
+      <c r="F64">
+        <v>0.001462524752966666</v>
+      </c>
+      <c r="G64">
+        <v>-0.0988698667550839</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.02926083238813995</v>
+        <v>0.07479678923300517</v>
       </c>
       <c r="C65">
-        <v>0.002762967922621541</v>
+        <v>-0.05894265472251188</v>
       </c>
       <c r="D65">
-        <v>-0.1135234236642609</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01698403890471141</v>
+      </c>
+      <c r="E65">
+        <v>-0.04699468504123069</v>
+      </c>
+      <c r="F65">
+        <v>0.02157385134028443</v>
+      </c>
+      <c r="G65">
+        <v>-0.04354622846386822</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.01340047508538779</v>
+        <v>0.05011309858407094</v>
       </c>
       <c r="C66">
-        <v>0.01941235076190145</v>
+        <v>-0.1050959275812239</v>
       </c>
       <c r="D66">
-        <v>-0.1378877261540353</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01213758287368652</v>
+      </c>
+      <c r="E66">
+        <v>-0.04827386765350834</v>
+      </c>
+      <c r="F66">
+        <v>0.02856089088575564</v>
+      </c>
+      <c r="G66">
+        <v>-0.1060906167889025</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.03799126541234508</v>
+        <v>0.05498830743061215</v>
       </c>
       <c r="C67">
-        <v>-0.02749392006336204</v>
+        <v>-0.03457584498910294</v>
       </c>
       <c r="D67">
-        <v>-0.06354459963517418</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006166413177470876</v>
+      </c>
+      <c r="E67">
+        <v>0.004372989764035387</v>
+      </c>
+      <c r="F67">
+        <v>-0.01741345747460439</v>
+      </c>
+      <c r="G67">
+        <v>-0.07115796351433118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.2339843790913682</v>
+        <v>0.1570541436290966</v>
       </c>
       <c r="C68">
-        <v>-0.1206476680792799</v>
+        <v>0.2710340887650967</v>
       </c>
       <c r="D68">
-        <v>0.1624808809378503</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005428830670560008</v>
+      </c>
+      <c r="E68">
+        <v>-0.008658119750458307</v>
+      </c>
+      <c r="F68">
+        <v>-0.04485562346011069</v>
+      </c>
+      <c r="G68">
+        <v>-0.02734360186643559</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.02863774356499502</v>
+        <v>0.08245022830607024</v>
       </c>
       <c r="C69">
-        <v>-0.02333518131690486</v>
+        <v>-0.07283653069869341</v>
       </c>
       <c r="D69">
-        <v>-0.08137115846765497</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00911957682609307</v>
+      </c>
+      <c r="E69">
+        <v>0.02541703463242929</v>
+      </c>
+      <c r="F69">
+        <v>-0.03556792931438384</v>
+      </c>
+      <c r="G69">
+        <v>-0.1002500893437754</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1918649806429525</v>
+        <v>0.1417093258238148</v>
       </c>
       <c r="C71">
-        <v>-0.1062999305580576</v>
+        <v>0.2289497983505118</v>
       </c>
       <c r="D71">
-        <v>0.1095960273259312</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002776059791601611</v>
+      </c>
+      <c r="E71">
+        <v>-0.03268027563745722</v>
+      </c>
+      <c r="F71">
+        <v>-0.03140055823701648</v>
+      </c>
+      <c r="G71">
+        <v>-0.0697177425920944</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.01642914566726298</v>
+        <v>0.08663157468887724</v>
       </c>
       <c r="C72">
-        <v>-0.01647608407404426</v>
+        <v>-0.06933146417324335</v>
       </c>
       <c r="D72">
-        <v>-0.09708013492383832</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008680032845937638</v>
+      </c>
+      <c r="E72">
+        <v>0.008893414006514128</v>
+      </c>
+      <c r="F72">
+        <v>0.03079000443956095</v>
+      </c>
+      <c r="G72">
+        <v>-0.08864475995798135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2551822402688735</v>
+        <v>0.3761307911195952</v>
       </c>
       <c r="C73">
-        <v>-0.1199554652404859</v>
+        <v>-0.115518197571435</v>
       </c>
       <c r="D73">
-        <v>-0.2905095258412407</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02309788009550987</v>
+      </c>
+      <c r="E73">
+        <v>-0.1551283761217521</v>
+      </c>
+      <c r="F73">
+        <v>0.5679546649823823</v>
+      </c>
+      <c r="G73">
+        <v>0.2867644411210059</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.04454694407281003</v>
+        <v>0.105846640513743</v>
       </c>
       <c r="C74">
-        <v>-0.03193943078866553</v>
+        <v>-0.1096656234824179</v>
       </c>
       <c r="D74">
-        <v>-0.171672843208332</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009466241190249181</v>
+      </c>
+      <c r="E74">
+        <v>0.01414060760167836</v>
+      </c>
+      <c r="F74">
+        <v>-0.06614057609759014</v>
+      </c>
+      <c r="G74">
+        <v>-0.07784594714818087</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1139230778957507</v>
+        <v>0.2487209636636441</v>
       </c>
       <c r="C75">
-        <v>-0.07734331717539022</v>
+        <v>-0.1508223012641981</v>
       </c>
       <c r="D75">
-        <v>-0.2966567498753813</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03156502991603925</v>
+      </c>
+      <c r="E75">
+        <v>0.08589513642639729</v>
+      </c>
+      <c r="F75">
+        <v>-0.1574298737243527</v>
+      </c>
+      <c r="G75">
+        <v>0.03050623365197102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.04728380661697313</v>
+        <v>0.1180172429402026</v>
       </c>
       <c r="C76">
-        <v>-0.03889214828766476</v>
+        <v>-0.1110173764584175</v>
       </c>
       <c r="D76">
-        <v>-0.1969066262760878</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01755110714230611</v>
+      </c>
+      <c r="E76">
+        <v>0.03471582384500219</v>
+      </c>
+      <c r="F76">
+        <v>-0.09301711415419889</v>
+      </c>
+      <c r="G76">
+        <v>-0.05556399963984165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01439978160540888</v>
+        <v>0.06953954262101368</v>
       </c>
       <c r="C77">
-        <v>0.002611115924372725</v>
+        <v>-0.05862846853116559</v>
       </c>
       <c r="D77">
-        <v>-0.08433726089708218</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01029043449447835</v>
+      </c>
+      <c r="E77">
+        <v>-0.05388459012529209</v>
+      </c>
+      <c r="F77">
+        <v>0.0007695753186208409</v>
+      </c>
+      <c r="G77">
+        <v>-0.0695047891027497</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.007685910987862274</v>
+        <v>0.04223964888201543</v>
       </c>
       <c r="C78">
-        <v>0.0007908585339698498</v>
+        <v>-0.05143275594383754</v>
       </c>
       <c r="D78">
-        <v>-0.0669834699006944</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.006388139969075477</v>
+      </c>
+      <c r="E78">
+        <v>-0.03627965962607827</v>
+      </c>
+      <c r="F78">
+        <v>0.03058635129441494</v>
+      </c>
+      <c r="G78">
+        <v>-0.1024359877720706</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001016027991746184</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0004003931878057416</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0003737559722445681</v>
+      </c>
+      <c r="E79">
+        <v>-0.004027989851199816</v>
+      </c>
+      <c r="F79">
+        <v>0.001438730908126401</v>
+      </c>
+      <c r="G79">
+        <v>-0.002052878468817858</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03400277671589282</v>
+        <v>0.04364555144039117</v>
       </c>
       <c r="C80">
-        <v>-0.006434772504890151</v>
+        <v>-0.04951789862329499</v>
       </c>
       <c r="D80">
-        <v>-0.08299258247295208</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01335377587583343</v>
+      </c>
+      <c r="E80">
+        <v>-0.02968657200896185</v>
+      </c>
+      <c r="F80">
+        <v>0.004926807791463219</v>
+      </c>
+      <c r="G80">
+        <v>-0.05440978341866451</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.05944038023310968</v>
+        <v>0.1384116886886513</v>
       </c>
       <c r="C81">
-        <v>-0.03999698705776122</v>
+        <v>-0.09743064063559378</v>
       </c>
       <c r="D81">
-        <v>-0.1707044580126775</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01535400577488271</v>
+      </c>
+      <c r="E81">
+        <v>0.04977822864273124</v>
+      </c>
+      <c r="F81">
+        <v>-0.1218926932652062</v>
+      </c>
+      <c r="G81">
+        <v>-0.01948920025179118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.002557710203710654</v>
+        <v>0.1431643577560887</v>
       </c>
       <c r="C82">
-        <v>-0.001457793091714434</v>
+        <v>-0.08357909511557718</v>
       </c>
       <c r="D82">
-        <v>-0.002843582679478539</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01131412023605987</v>
+      </c>
+      <c r="E82">
+        <v>0.1196400627697497</v>
+      </c>
+      <c r="F82">
+        <v>-0.05547535744478303</v>
+      </c>
+      <c r="G82">
+        <v>-0.05541524427555673</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01327873232711662</v>
+        <v>0.03466310950904668</v>
       </c>
       <c r="C83">
-        <v>-0.003295108672913966</v>
+        <v>-0.03080751442323088</v>
       </c>
       <c r="D83">
-        <v>-0.01907750699878671</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.006093416721236661</v>
+      </c>
+      <c r="E83">
+        <v>-0.03176895697987727</v>
+      </c>
+      <c r="F83">
+        <v>0.02632751278037335</v>
+      </c>
+      <c r="G83">
+        <v>-0.06072240698550316</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.09665105306660982</v>
+        <v>0.2093673463994547</v>
       </c>
       <c r="C85">
-        <v>-0.0536436153912038</v>
+        <v>-0.146141983308028</v>
       </c>
       <c r="D85">
-        <v>-0.2564953540374776</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01729576053856028</v>
+      </c>
+      <c r="E85">
+        <v>0.1120170543491744</v>
+      </c>
+      <c r="F85">
+        <v>-0.09473910407839772</v>
+      </c>
+      <c r="G85">
+        <v>0.06725592053999777</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01146831425552711</v>
+        <v>0.01390459519946488</v>
       </c>
       <c r="C86">
-        <v>-0.0006092387664356737</v>
+        <v>-0.02801717823560422</v>
       </c>
       <c r="D86">
-        <v>-0.04361581224684064</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01160638610478216</v>
+      </c>
+      <c r="E86">
+        <v>-0.05204200876364488</v>
+      </c>
+      <c r="F86">
+        <v>0.008588203551544294</v>
+      </c>
+      <c r="G86">
+        <v>-0.1908434103858221</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.008637160298041426</v>
+        <v>0.02198677301896022</v>
       </c>
       <c r="C87">
-        <v>0.01497905560308737</v>
+        <v>-0.01915182173974803</v>
       </c>
       <c r="D87">
-        <v>-0.03274574522900137</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01241538620836595</v>
+      </c>
+      <c r="E87">
+        <v>-0.09995072558658041</v>
+      </c>
+      <c r="F87">
+        <v>-0.008676848066549499</v>
+      </c>
+      <c r="G87">
+        <v>-0.1240617664909125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.04436764866994754</v>
+        <v>0.0935530728398675</v>
       </c>
       <c r="C88">
-        <v>0.0007643387713055414</v>
+        <v>-0.06914284752420001</v>
       </c>
       <c r="D88">
-        <v>-0.04656309131270479</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02206213773448337</v>
+      </c>
+      <c r="E88">
+        <v>0.007024753612711016</v>
+      </c>
+      <c r="F88">
+        <v>-0.01966958709929946</v>
+      </c>
+      <c r="G88">
+        <v>-0.1050792806481708</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3432955692218174</v>
+        <v>0.2301496223352237</v>
       </c>
       <c r="C89">
-        <v>-0.1861132490226777</v>
+        <v>0.36815569803104</v>
       </c>
       <c r="D89">
-        <v>0.1995567150184692</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-6.093804797033022e-05</v>
+      </c>
+      <c r="E89">
+        <v>0.02064342037195936</v>
+      </c>
+      <c r="F89">
+        <v>-0.02290856829642313</v>
+      </c>
+      <c r="G89">
+        <v>-0.07127997917977662</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2898139965983013</v>
+        <v>0.2081030636262856</v>
       </c>
       <c r="C90">
-        <v>-0.1609678172096035</v>
+        <v>0.3177122567645283</v>
       </c>
       <c r="D90">
-        <v>0.1761459597277172</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004596580741062125</v>
+      </c>
+      <c r="E90">
+        <v>-0.0004617418802304708</v>
+      </c>
+      <c r="F90">
+        <v>-0.05009604023277024</v>
+      </c>
+      <c r="G90">
+        <v>-0.04485249640429159</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.09379386893619572</v>
+        <v>0.1859901057733724</v>
       </c>
       <c r="C91">
-        <v>-0.06643305938469113</v>
+        <v>-0.1392464026078088</v>
       </c>
       <c r="D91">
-        <v>-0.2220755776274151</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02242493529943652</v>
+      </c>
+      <c r="E91">
+        <v>0.07844995268792428</v>
+      </c>
+      <c r="F91">
+        <v>-0.1283661203405959</v>
+      </c>
+      <c r="G91">
+        <v>-0.02682394936479227</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2440896811968237</v>
+        <v>0.1993520565344628</v>
       </c>
       <c r="C92">
-        <v>-0.171164302952007</v>
+        <v>0.2565387337526022</v>
       </c>
       <c r="D92">
-        <v>0.09212777145126999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03835579944598191</v>
+      </c>
+      <c r="E92">
+        <v>-0.03087710023786982</v>
+      </c>
+      <c r="F92">
+        <v>-0.06583864432093448</v>
+      </c>
+      <c r="G92">
+        <v>-0.1136131175592075</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.3055193175278245</v>
+        <v>0.2323006958943434</v>
       </c>
       <c r="C93">
-        <v>-0.1761603797767202</v>
+        <v>0.3125872855699579</v>
       </c>
       <c r="D93">
-        <v>0.1364863173975351</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0114721599908218</v>
+      </c>
+      <c r="E93">
+        <v>-0.002601886684506659</v>
+      </c>
+      <c r="F93">
+        <v>-0.04430598919774799</v>
+      </c>
+      <c r="G93">
+        <v>-0.05619891028107988</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.119781567241097</v>
+        <v>0.3194217433301178</v>
       </c>
       <c r="C94">
-        <v>-0.05748297279012719</v>
+        <v>-0.1834263527082323</v>
       </c>
       <c r="D94">
-        <v>-0.2797036391239948</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02075678187195462</v>
+      </c>
+      <c r="E94">
+        <v>0.2845223782662181</v>
+      </c>
+      <c r="F94">
+        <v>-0.4428611414200756</v>
+      </c>
+      <c r="G94">
+        <v>0.3953560263861521</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.0008507057396229241</v>
+        <v>0.09562613682724316</v>
       </c>
       <c r="C95">
-        <v>-0.005838896579598486</v>
+        <v>-0.08536361876867805</v>
       </c>
       <c r="D95">
-        <v>-0.1248165445522454</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009520919398798363</v>
+      </c>
+      <c r="E95">
+        <v>-0.09673006012246495</v>
+      </c>
+      <c r="F95">
+        <v>0.1593047211866966</v>
+      </c>
+      <c r="G95">
+        <v>-0.03606138885224806</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1359040324437027</v>
+        <v>0.1929426182734161</v>
       </c>
       <c r="C98">
-        <v>-0.09244338167313326</v>
+        <v>-0.04479444035181487</v>
       </c>
       <c r="D98">
-        <v>-0.1351571697649626</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01201059018003711</v>
+      </c>
+      <c r="E98">
+        <v>-0.1043156306696916</v>
+      </c>
+      <c r="F98">
+        <v>0.2304236513947807</v>
+      </c>
+      <c r="G98">
+        <v>0.02570118062254769</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.005319222068409531</v>
+        <v>0.008987406705636369</v>
       </c>
       <c r="C101">
-        <v>0.004437571286547499</v>
+        <v>-0.0234162117650624</v>
       </c>
       <c r="D101">
-        <v>-0.018601895364068</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009153868443019571</v>
+      </c>
+      <c r="E101">
+        <v>-0.003566178025195448</v>
+      </c>
+      <c r="F101">
+        <v>-0.01715043934752378</v>
+      </c>
+      <c r="G101">
+        <v>-0.1019264238464391</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.05573124471037386</v>
+        <v>0.1148848531403206</v>
       </c>
       <c r="C102">
-        <v>-0.02318407665376907</v>
+        <v>-0.08228136581077386</v>
       </c>
       <c r="D102">
-        <v>-0.1286082586877421</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0006492593901552417</v>
+      </c>
+      <c r="E102">
+        <v>0.04088336024353573</v>
+      </c>
+      <c r="F102">
+        <v>-0.03700482214833693</v>
+      </c>
+      <c r="G102">
+        <v>-0.01035016411701565</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.4917865834429072</v>
+        <v>0.02146019442902816</v>
       </c>
       <c r="C104">
-        <v>0.8602176328071657</v>
+        <v>0.02970309610382783</v>
       </c>
       <c r="D104">
-        <v>0.03151222839117056</v>
+        <v>0.9876719340819614</v>
+      </c>
+      <c r="E104">
+        <v>0.05885988219320615</v>
+      </c>
+      <c r="F104">
+        <v>-0.02995710917181468</v>
+      </c>
+      <c r="G104">
+        <v>0.04089813959590911</v>
       </c>
     </row>
   </sheetData>
